--- a/biology/Botanique/Bacopa/Bacopa.xlsx
+++ b/biology/Botanique/Bacopa/Bacopa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bacopa est un genre végétal de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1], ou de la famille des Plantaginaceae selon la plus récente classification APG III. L'espèce type est Bacopa aquatica Aubl..
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bacopa est un genre végétal de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981), ou de la famille des Plantaginaceae selon la plus récente classification APG III. L'espèce type est Bacopa aquatica Aubl..
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « BACOPA. (Tabula 49.)
 CAL. Perianthium monophyllum, quinquepartitum; laciniis duabus oppoſitis, oblongis, acutis, concavis; duabus inferioribus reflexis, ſubrotundis, acutis; unica ſuperiore, latiore ſubrotunda, undulata.
 COR. monopetala ; tubus brevis, ad faucem ampliatus, calicis parieti interno inſertus; limbus, quinquefidus; lobis oblongis, ovatis.
@@ -529,7 +543,7 @@
 TIGE. Tige ovale, attachée à la base du calice.
 PISTIL. Style court. Stigmate capité, convexe.
 GRAINES (SEMENCES). Nombreuses, minuscules. »
-			Bacopa aquatica par Aublet (1775) Planche 49.On a grossi les parties de la fleur seulement.1. Fleur à demi ouverte, garnie de deux écailles.2. Fleur ouverte, avec deux portions du calice rabattues.3. Corolle ouverte. Étamines. pistil.4. Calice. pistil.5. Corolle vue en dessous.6. Étamine séparée.7. Ovaire. Style. Stigmate[2].
+			Bacopa aquatica par Aublet (1775) Planche 49.On a grossi les parties de la fleur seulement.1. Fleur à demi ouverte, garnie de deux écailles.2. Fleur ouverte, avec deux portions du calice rabattues.3. Corolle ouverte. Étamines. pistil.4. Calice. pistil.5. Corolle vue en dessous.6. Étamine séparée.7. Ovaire. Style. Stigmate.
 </t>
         </is>
       </c>
@@ -558,15 +572,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 janvier 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 janvier 2018) :
 Bacopa caroliniana
 Bacopa eisenii
 Bacopa monnieri
 Bacopa repens
 Bacopa rotundifolia
-Selon ITIS      (8 janvier 2018)[4] :
+Selon ITIS      (8 janvier 2018) :
 Bacopa caroliniana (Walt.) B.L. Robins.
 Bacopa egensis (Poepp.) Pennell
 Bacopa eisenii (Kellogg) Pennell
